--- a/DateBase/orders/Nha Thu_2026-1-13.xlsx
+++ b/DateBase/orders/Nha Thu_2026-1-13.xlsx
@@ -1274,6 +1274,9 @@
       <c r="C101" t="str">
         <v>832_康乃馨香槟_undefined_undefined_1bunch</v>
       </c>
+      <c r="F101" t="str">
+        <v>5</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
@@ -1335,7 +1338,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>01010315105205202030152010105451010104610810551052055551033253155555101555151055515510101551010201510105555551010101551051510101055155101010101010551510100</v>
+        <v>01010315105205202030152010105451010104610810551052055551033253155555101555151055515510101551010201510105555551010101551051510101055155101010101010551510105</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Nha Thu_2026-1-13.xlsx
+++ b/DateBase/orders/Nha Thu_2026-1-13.xlsx
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L101"/>
+  <dimension ref="A1:L103"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1278,9 +1278,28 @@
         <v>5</v>
       </c>
     </row>
+    <row r="102">
+      <c r="A102" t="str">
+        <v>1</v>
+      </c>
+      <c r="C102" t="str">
+        <v>577_腊梅白_wax white_undefined_1bunch</v>
+      </c>
+      <c r="F102" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="C103" t="str">
+        <v>828_豌豆花浅紫_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F103" t="str">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:L101"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:L103"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -1338,7 +1357,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>01010315105205202030152010105451010104610810551052055551033253155555101555151055515510101551010201510105555551010101551051510101055155101010101010551510105</v>
+        <v>0101031510520520203015201010545101010461081055105205555103325315555510155515105551551010155101020151010555555101010155105151010105515510101010101055151010553</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Nha Thu_2026-1-13.xlsx
+++ b/DateBase/orders/Nha Thu_2026-1-13.xlsx
@@ -1359,6 +1359,9 @@
       <c r="G2" t="str">
         <v>0101031510520520203015201010545101010461081055105205555103325315555510155515105551551010155101020151010555555101010155105151010105515510101010101055151010553</v>
       </c>
+      <c r="H2" t="str">
+        <v>CNY</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
